--- a/DateBase/orders/Dang Nguyen_2025-2-7.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-2-7.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +526,75 @@
       <c r="A11" t="str">
         <v>3</v>
       </c>
+      <c r="C11" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F11" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F12" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F13" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F14" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>4</v>
+      </c>
+      <c r="C15" t="str">
+        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F15" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>260_凯拉_Kayla_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>260_凯拉_Kayla_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F18" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L18"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +652,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>06016531710201550</v>
+        <v>06016531710201555030503020151515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-2-7.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-2-7.xlsx
@@ -654,6 +654,9 @@
       <c r="G2" t="str">
         <v>06016531710201555030503020151515</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
